--- a/data/financial_statements/socf/PCAR.xlsx
+++ b/data/financial_statements/socf/PCAR.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -110,9 +230,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -165,12 +282,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -467,1948 +581,1987 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN30"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>921300000</v>
+      </c>
+      <c r="C2">
         <v>769400000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>720400000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>600500000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>505300000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>380500000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>495500000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>470800000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>405800000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>385500000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>147700000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>359400000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>531300000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>607900000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>619700000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>629000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>578100000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>545300000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>559600000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>512100000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>589200000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>402700000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>373000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>310300000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>288800000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>346200000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>481300000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>-594600000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>347200000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>431200000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>447200000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>378400000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>394300000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>371400000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>319200000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>273900000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>334200000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>309400000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>291600000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>236100000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
-        <v>207100000</v>
+        <v>-127600000</v>
       </c>
       <c r="C3">
-        <v>206100000</v>
+        <v>203000000</v>
       </c>
       <c r="D3">
+        <v>196900000</v>
+      </c>
+      <c r="E3">
         <v>185700000</v>
       </c>
-      <c r="E3">
-        <v>208000000</v>
-      </c>
       <c r="F3">
-        <v>207200000</v>
+        <v>211000000</v>
       </c>
       <c r="G3">
+        <v>209900000</v>
+      </c>
+      <c r="H3">
         <v>230700000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>251700000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>269500000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>266200000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>241300000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>272000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>284900000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>272100000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>438900000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>81400000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>259700000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>252600000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>268300000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>273500000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>293200000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>286100000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>269000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>259200000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>247500000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>250200000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>252900000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>242500000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>227800000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>230900000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>227300000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>221100000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>-45100000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>230100000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>227700000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>219800000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>222000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>206400000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>197600000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>184700000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>549900000</v>
+      </c>
+      <c r="C4">
         <v>-51100000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-19400000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-147200000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>38700000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-195500000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-10800000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-49600000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-71900000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-66400000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>10100000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>-8000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>28800000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>24800000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>-141600000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>165100000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>40300000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>12800000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>44500000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>-117400000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>-175800000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>3700000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>8500000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>-15000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>-57700000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>-825600000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>-151400000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>928600000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>6200000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>29100000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>-49900000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>-44500000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>230200000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>-34700000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>-14200000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>-19400000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>50900000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>44800000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>7500000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>17400000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>203900000</v>
+      </c>
+      <c r="C5">
         <v>-128800000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-302100000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-708400000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-600800000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>450100000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>270000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-441400000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>274500000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-6600000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>712500000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>12600000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>383700000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>-218600000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>87600000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>-845200000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>152100000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>-197400000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>-179400000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>-586700000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>312200000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>-176700000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>-240000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>-361200000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>323400000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>6100000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>152000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>-141700000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>340100000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>61200000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>-68200000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>-501200000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>82000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>-244400000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>77300000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>-219000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>195300000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>-214400000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>49900000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>-228300000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>649400000</v>
+      </c>
+      <c r="C6">
         <v>-215600000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-77000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-230900000</v>
       </c>
-      <c r="E6">
-        <v>730700000</v>
-      </c>
       <c r="F6">
-        <v>-502000000</v>
+        <v>738900000</v>
       </c>
       <c r="G6">
+        <v>-505900000</v>
+      </c>
+      <c r="H6">
         <v>-572400000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-270900000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-60100000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>27400000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>153500000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>-169000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>159800000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>13500000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>-55900000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-92800000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>94500000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>-38700000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>-253000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>-135500000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>57900000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>-81000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>-92000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>-34800000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>71500000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>4900000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>-1900000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>-10400000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>89400000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>-26600000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>-8500000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>10000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>30100000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>-67600000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>-8800000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>-143200000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>77700000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>-46600000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>-22900000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>-47800000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
         <v>126700000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>260000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>550300000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>186600000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-224200000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>75200000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>655800000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-196600000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>376200000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>-188900000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>-44300000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>-495900000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>70700000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>-7700000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>405300000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>-234000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>101500000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>220100000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>441300000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>-262200000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>173600000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>234600000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>187600000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>-161200000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>-72700000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>14800000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>210500000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>-448600000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>-195300000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>167800000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>313500000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>-215300000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>345200000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>-57200000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>179600000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>-270200000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>143300000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>147100000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>220600000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>-22900000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-140600000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>209300000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>167600000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-157400000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-79500000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-150600000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>-141300000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>3200000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>-43300000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>-114500000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>20200000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>52600000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>13100000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>138000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>36600000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>-24800000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>205000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>112100000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>69300000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>111700000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>145600000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>-2700000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>63600000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>192000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>38900000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>-27500000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>129500000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>107000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>-13600000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>34700000</v>
+      </c>
+      <c r="C9">
         <v>-22900000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-140600000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>209300000</v>
       </c>
-      <c r="E9">
-        <v>-254000000</v>
-      </c>
       <c r="F9">
+        <v>-112500000</v>
+      </c>
+      <c r="G9">
         <v>166500000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-158100000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-79800000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-115200000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-150600000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>-141300000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>3200000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>-86500000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>378100000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>295600000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>-7700000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>46400000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>59400000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>391100000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>19900000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>36600000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>49200000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>349200000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>-12000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>-2100000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>35300000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>249200000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>-31200000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>-27800000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>21500000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>288400000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>-24700000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>-9200000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>14900000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>1248800000</v>
+      </c>
+      <c r="C10">
         <v>680700000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>638200000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>459300000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1036500000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>282500000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>330800000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>536900000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>794700000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>831700000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>934900000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>425900000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>943700000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>727100000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>826500000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>363000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>1065100000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>728700000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>673200000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>525300000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>893300000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>637300000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>574700000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>610500000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>810300000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>-158900000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>853600000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>795800000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>704800000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>664100000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>710900000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>476200000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>522000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>760800000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>555100000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>285700000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>675400000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>547700000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>768600000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>384000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>-1276999900</v>
+      </c>
+      <c r="C11">
         <v>-194700100</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-210500000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-180500000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-243299800</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-153300100</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-203100000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-116800000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-291999900</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-173900100</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-173900000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-343400000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-402500000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>-352700000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>-691200000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>66000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>-371100000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>-332500000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>-371700000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>-223300000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>-405500000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>-299900000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>-363200000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>-307300000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>-403600000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>-431200000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>-392000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>-294800000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>-341100100</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>-356599900</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>-329100000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>-274300000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>909400000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>-311500000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>-312900000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>-186600000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>-389600000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>-433500000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>-406300000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>-296800000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12">
         <v>-280100000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>-287400000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>-1239100000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>-38000000</v>
+      </c>
+      <c r="C13">
         <v>-42700000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-85800000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-3800000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-25000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-135100000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-11200000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-4800000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-219100000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-37200000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>-28800000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>40500000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>-44500000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>-2800000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>-31800000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-56000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>-27600000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>26300000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>-3200000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>320100000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>-156000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>41500000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>-16000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>-60300000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>-97800000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>342200000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>14500000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>14000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>-78200000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>-21700000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>-148600000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>-45800000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>3300000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>-58100000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>-82600000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>12800000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>-71200000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>13100000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>-24100000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>-19000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>-217300000</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C14">
-        <v>-176600000</v>
+        <v>-202100000</v>
       </c>
       <c r="D14">
+        <v>-176600100</v>
+      </c>
+      <c r="E14">
         <v>-221800000</v>
       </c>
-      <c r="E14">
-        <v>-69300000</v>
-      </c>
       <c r="F14">
-        <v>-57800000</v>
+        <v>-68999800</v>
       </c>
       <c r="G14">
+        <v>-70300100</v>
+      </c>
+      <c r="H14">
         <v>-236700000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-94100000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-330399900</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-229100100</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>-11600000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-76900000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>-203900000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>-75599900</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>-289100100</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-123300000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>-255500000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>-225100100</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>-314200000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>-152900000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>-263600000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>-110800000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>-54100000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>30600000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>-141499900</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>-46300000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>-116400000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>-11400000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>-153899800</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>-108700100</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>-104800000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>-12100000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>-123199800</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>-59500100</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>-82100000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>-1800000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>-226100000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>-105700000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>-166100000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>-25700000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>-714500000</v>
+      </c>
+      <c r="C15">
         <v>-439500000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-472900000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-406100000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-337300000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-358700000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-451000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-215700000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-841500000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-440200000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>-214300000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-379800000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-650900000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>-431100000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>-724700000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-400700000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>-654200000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>-531300000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>-689100000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>-56100000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>-825100000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>-369200000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>-433300000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>-337000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>-642900000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>-135300000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>-493900000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>-292200000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>-573200000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>-487000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>-582500000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>-332200000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>-449600000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>-429100000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>-477600000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>-175600000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>-686900000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>-526100000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>-596500000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>-341500000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
-        <v>42200000</v>
+        <v>838700000</v>
       </c>
       <c r="C16">
-        <v>-73100000</v>
+        <v>42199900</v>
       </c>
       <c r="D16">
+        <v>-73099900</v>
+      </c>
+      <c r="E16">
         <v>468200000</v>
       </c>
-      <c r="E16">
-        <v>617700000</v>
-      </c>
       <c r="F16">
-        <v>-620200000</v>
+        <v>617700100</v>
       </c>
       <c r="G16">
+        <v>-620199900</v>
+      </c>
+      <c r="H16">
         <v>-26400100</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-182000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>278500000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-128699900</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>-839000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>108900000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>255900000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>347900000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>394800000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>272800000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>427600000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>369700000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>238400000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>174800000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>52300000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>217000100</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>24699900</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>-168800000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>88700100</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>90100000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>-39600000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>-92300000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>-11300000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>172000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>316900000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>186200000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>137800100</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>90300000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>78800000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>-190000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>119400000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>284600000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>96200000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>25700000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>13900000</v>
+      </c>
+      <c r="C17">
         <v>3200000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1700000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>14800000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>7400000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-100000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1300000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>27400000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>11900000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>30000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>4900000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>-35200000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>27000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>-43800000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>-15600000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-17000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>-195100000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>-56700000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>-79300000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>-4000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>11100000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>9400000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>1000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>17800000</v>
-      </c>
-      <c r="Y17">
-        <v>3900000</v>
       </c>
       <c r="Z17">
         <v>3900000</v>
       </c>
       <c r="AA17">
+        <v>3900000</v>
+      </c>
+      <c r="AB17">
         <v>4800000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>-53700000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>-125300000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>-67200000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>6400000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>6300000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>-4500000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>-22400000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>1700000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>11600000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>5300000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>8200000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>9900000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>7600000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>-128800000</v>
+      </c>
+      <c r="C18">
         <v>-118300000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-118200000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-639400000</v>
-      </c>
-      <c r="E18">
-        <v>-118100000</v>
       </c>
       <c r="F18">
         <v>-118100000</v>
@@ -2417,515 +2570,527 @@
         <v>-118100000</v>
       </c>
       <c r="H18">
+        <v>-118100000</v>
+      </c>
+      <c r="I18">
         <v>-353700000</v>
-      </c>
-      <c r="I18">
-        <v>-110900000</v>
       </c>
       <c r="J18">
         <v>-110900000</v>
       </c>
       <c r="K18">
+        <v>-110900000</v>
+      </c>
+      <c r="L18">
         <v>-110600000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>-907400000</v>
-      </c>
-      <c r="M18">
-        <v>-110800000</v>
       </c>
       <c r="N18">
         <v>-110800000</v>
       </c>
       <c r="O18">
+        <v>-110800000</v>
+      </c>
+      <c r="P18">
         <v>-110900000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>-806100000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>-97700000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>-98100000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>-98400000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>-510100000</v>
-      </c>
-      <c r="U18">
-        <v>-87900000</v>
       </c>
       <c r="V18">
         <v>-87900000</v>
       </c>
       <c r="W18">
+        <v>-87900000</v>
+      </c>
+      <c r="X18">
         <v>-87800000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>-294700000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>-84100000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>-84200000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>-84100000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>-576900000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>-84800000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>-85200000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>-78100000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>-432400000</v>
-      </c>
-      <c r="AG18">
-        <v>-78000000</v>
       </c>
       <c r="AH18">
         <v>-78000000</v>
       </c>
       <c r="AI18">
+        <v>-78000000</v>
+      </c>
+      <c r="AJ18">
         <v>-78100000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>-389700000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>-70800000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>-70900000</v>
-      </c>
-      <c r="AM18">
-        <v>-70700000</v>
       </c>
       <c r="AN18">
         <v>-70700000</v>
       </c>
+      <c r="AO18">
+        <v>-70700000</v>
+      </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
         <v>-55200000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-28600000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-147200000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>254600000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-192800000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>19000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>-49600000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-33300000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-27600000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>41600000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>31100000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>3000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>723800000</v>
+      </c>
+      <c r="C20">
         <v>-72900000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-189600000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-156400000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>507000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-738400000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>-143200000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-508300000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>179500000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-209600000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>-944700000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>-833700000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>172100000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>193300000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>268300000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>-550300000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>134800000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>214900000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>60700000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>-339300000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>-24500000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>138500000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>-62100000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>-445700000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>8500000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>9800000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>-118900000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>-722900000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>-221400000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>19600000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>245200000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>-239900000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>55300000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>-10100000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>2400000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>-568100000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>53900000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>221900000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>35400000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>-37400000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>109300000</v>
+      </c>
+      <c r="C21">
         <v>-76100000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-59300000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>-10200000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-5700000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-27400000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>13200000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>-32500000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>62600000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>34400000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>29000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>-64400000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>40700000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>-39200000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>6700000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>-5300000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>-23800000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>-5100000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>-42100000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>9500000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>7700000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>26900000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>36100000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>20900000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>-48100000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>7400000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>-23200000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>50200000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>-19900000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>-33700000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>24800000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>-77000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>-38500000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>-53500000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>10500000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>-2200000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>-2700000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>25000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>-27000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>-16100000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>1367400000</v>
+      </c>
+      <c r="C22">
         <v>92200000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-83600000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>-113400000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>1200500000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-842000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>-250200000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>-219600000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>195300000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>216300000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>-195100000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>-852000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>505600000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>450100000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>376800000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>-593300000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>521900000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>407200000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>2700000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>139400000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>51400000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>433500000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>115400000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>-151300000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>127800000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>-277000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>217600000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>-169100000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>-109700000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>163000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>398400000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>-172900000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>89200000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>268100000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>90400000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>-460200000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>39700000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>268500000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>180500000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>-11000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2934,10 +3099,10 @@
         <v>0</v>
       </c>
       <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>3428300000</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2946,10 +3111,10 @@
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>3539600000</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2958,10 +3123,10 @@
         <v>0</v>
       </c>
       <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
         <v>4175100000</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2970,10 +3135,10 @@
         <v>0</v>
       </c>
       <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>3435900000</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -2982,10 +3147,10 @@
         <v>0</v>
       </c>
       <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
         <v>2364700000</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -2994,10 +3159,10 @@
         <v>0</v>
       </c>
       <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
         <v>1915700000</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -3006,10 +3171,10 @@
         <v>0</v>
       </c>
       <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
         <v>2016400000</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -3018,10 +3183,10 @@
         <v>0</v>
       </c>
       <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
         <v>1737600000</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
       </c>
       <c r="AH23">
         <v>0</v>
@@ -3030,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
         <v>1750100000</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
       </c>
       <c r="AL23">
         <v>0</v>
@@ -3042,146 +3207,152 @@
         <v>0</v>
       </c>
       <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
         <v>1272400000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>1367400000</v>
+      </c>
+      <c r="C24">
         <v>92200000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>-83600000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>3314900000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>1200500000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>-842000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>-250200000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>3320000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>195300000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>216300000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>-195100000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>3323100000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>505600000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>450100000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>376800000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>2842600000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>521900000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>407200000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>2700000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>2504100000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>51400000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>433500000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>115400000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>1764400000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>127800000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>-277000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>217600000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>1847300000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>-109700000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>163000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>398400000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>1564700000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>89200000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>268100000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>90400000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>1289900000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>39700000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>268500000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>180500000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>1261400000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>-128800000</v>
+      </c>
+      <c r="C25">
         <v>-118300000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-118200000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>-639400000</v>
-      </c>
-      <c r="E25">
-        <v>-118100000</v>
       </c>
       <c r="F25">
         <v>-118100000</v>
@@ -3190,712 +3361,730 @@
         <v>-118100000</v>
       </c>
       <c r="H25">
+        <v>-118100000</v>
+      </c>
+      <c r="I25">
         <v>-353700000</v>
-      </c>
-      <c r="I25">
-        <v>-110900000</v>
       </c>
       <c r="J25">
         <v>-110900000</v>
       </c>
       <c r="K25">
+        <v>-110900000</v>
+      </c>
+      <c r="L25">
         <v>-110600000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>-907400000</v>
-      </c>
-      <c r="M25">
-        <v>-110800000</v>
       </c>
       <c r="N25">
         <v>-110800000</v>
       </c>
       <c r="O25">
+        <v>-110800000</v>
+      </c>
+      <c r="P25">
         <v>-110900000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>-806100000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>-97700000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>-98100000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>-98400000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>-510100000</v>
-      </c>
-      <c r="U25">
-        <v>-87900000</v>
       </c>
       <c r="V25">
         <v>-87900000</v>
       </c>
       <c r="W25">
+        <v>-87900000</v>
+      </c>
+      <c r="X25">
         <v>-87800000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>-294700000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>-84100000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>-84200000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>-84100000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>-576900000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>-84800000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>-85200000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>-78100000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>-432400000</v>
-      </c>
-      <c r="AG25">
-        <v>-78000000</v>
       </c>
       <c r="AH25">
         <v>-78000000</v>
       </c>
       <c r="AI25">
+        <v>-78000000</v>
+      </c>
+      <c r="AJ25">
         <v>-78100000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>-389700000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>-70800000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>-70900000</v>
-      </c>
-      <c r="AM25">
-        <v>-70700000</v>
       </c>
       <c r="AN25">
         <v>-70700000</v>
       </c>
+      <c r="AO25">
+        <v>-70700000</v>
+      </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
-        <v>0.302</v>
+        <v>0.123</v>
       </c>
       <c r="C26">
-        <v>0.3152</v>
+        <v>0.189</v>
       </c>
       <c r="D26">
-        <v>0.3192</v>
+        <v>0.2013</v>
       </c>
       <c r="E26">
-        <v>0.1786</v>
+        <v>0.1966</v>
       </c>
       <c r="F26">
-        <v>0.3309</v>
+        <v>0.1774</v>
       </c>
       <c r="G26">
+        <v>0.2214</v>
+      </c>
+      <c r="H26">
         <v>0.1954</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>0.1803</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>0.1967</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>0.1979</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>0.2361</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>0.3168</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>0.2145</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>0.2505</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>0.2511</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>0.2616</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>0.2739</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>0.2344</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>0.2648</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>0.2457</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>0.2003</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0.2066</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>0.2333</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>0.2283</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>0.2363</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>0.2745</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>0.2721</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>0.274</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>0.305</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>0.2784</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>0.2298</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>0.2401</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>0.2162</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>0.2598</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>0.2512</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>0.2381</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>0.258</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>0.2725</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>0.2752</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>0.3067</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>-94799900</v>
+      </c>
+      <c r="C27">
         <v>-240600100</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>-259699900</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>-179700100</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>281500000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>-112400000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-384599900</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-136000100</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>191300000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>246400000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>535800000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>-197500000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>98700100</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>-177700100</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>-90500000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>-512500000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>186999800</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>-82000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>-199199900</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>-142900000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>186700000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>-55200000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>-75800000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>56000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>331700000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>70300000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>270800000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>219300000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>123600000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>-27100000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>86300000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>-78800000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>-57400100</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>194000100</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>22400000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>-188600000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>68300000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>-12900000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>271900000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>-54200000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>-38000000</v>
+      </c>
+      <c r="C28">
         <v>-42700000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-85800000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>-3800000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>-25000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-135100000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-11200000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-4800000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-219100000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-37200000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>-28800000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>40500000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>-44500000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>-2800000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>-31800000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>-56000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>-27600000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>26300000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>-3200000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>320100000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-156000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>41500000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>-16000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>-60300000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>-97800000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>342200000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>14500000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>14000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>-78200000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>-21700000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>-148600000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>-45800000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>3300000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>-58100000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>-82600000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>12800000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>-71200000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>13100000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>-24100000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>-19000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>13900000</v>
+      </c>
+      <c r="C29">
         <v>3200000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>1700000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>14800000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>7400000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-100000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>1300000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>27400000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>11900000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>30000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>4900000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>-35200000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>27000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>-43800000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>-15600000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>-17000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>-195100000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>-56700000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>-79300000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>-4000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>11100000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>9400000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>1000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>17800000</v>
-      </c>
-      <c r="Y29">
-        <v>3900000</v>
       </c>
       <c r="Z29">
         <v>3900000</v>
       </c>
       <c r="AA29">
+        <v>3900000</v>
+      </c>
+      <c r="AB29">
         <v>4800000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>-53700000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>-125300000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>-67200000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>6400000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>6300000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>-4500000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>-22400000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>1700000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>11600000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>5300000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>8200000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>9900000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>7600000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>13900000</v>
+      </c>
+      <c r="C30">
         <v>3200000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>1700000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>14800000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>7400000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>-100000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>1300000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>27400000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>11900000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>30000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>4900000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>-35200000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>27000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>-43800000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>-15600000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>-17000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>-195100000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>-56700000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>-79300000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>-4000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>11100000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>9400000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>1000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>17800000</v>
-      </c>
-      <c r="Y30">
-        <v>3900000</v>
       </c>
       <c r="Z30">
         <v>3900000</v>
       </c>
       <c r="AA30">
+        <v>3900000</v>
+      </c>
+      <c r="AB30">
         <v>4800000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>-53700000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>-125300000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>-67200000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>6400000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>6300000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>-4500000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>-22400000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>1700000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>11600000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>5300000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>8200000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>9900000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>7600000</v>
       </c>
     </row>
